--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A4640-C916-40D3-A99B-59AE6C3E3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>ada lovelace</t>
+  </si>
+  <si>
+    <t>ADA@company.COM</t>
+  </si>
+  <si>
+    <t>lagos</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>JOHN DOE</t>
+  </si>
+  <si>
+    <t>john_doe@company.com</t>
+  </si>
+  <si>
+    <t>abuja</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Mary ann</t>
+  </si>
+  <si>
+    <t>MARYANN@company.COM</t>
+  </si>
+  <si>
+    <t>port Harcourt</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Femi Ade</t>
+  </si>
+  <si>
+    <t>femi_ade@company.com</t>
+  </si>
+  <si>
+    <t>Ada Lovelace</t>
+  </si>
+  <si>
+    <t>ADA@company.com</t>
+  </si>
+  <si>
+    <t>LAGOS</t>
+  </si>
+  <si>
+    <t>data science</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +419,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A4640-C916-40D3-A99B-59AE6C3E3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B615285-3D3C-4F7F-A2AE-B03ADACA83AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,8 +109,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,25 +434,32 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -526,5 +544,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B615285-3D3C-4F7F-A2AE-B03ADACA83AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8FE73-A335-4732-808C-4BC554C6EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaned data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Full Name</t>
   </si>
@@ -433,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,4 +547,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8FE73-A335-4732-808C-4BC554C6EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838BACF3-082A-4121-83F9-391442E0D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Full Name</t>
   </si>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,85 +583,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838BACF3-082A-4121-83F9-391442E0D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03AA67-732D-41EF-8FEE-C610717C60D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Cleaned data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -435,7 +444,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,6 +592,66 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!A2)</f>
+        <v>ada lovelace</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TRIM(Sheet1!B2)</f>
+        <v>ADA@company.COM</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!A3)</f>
+        <v>JOHN DOE</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TRIM(Sheet1!B3)</f>
+        <v>john_doe@company.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!A4)</f>
+        <v>Mary ann</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TRIM(Sheet1!B4)</f>
+        <v>MARYANN@company.COM</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!A5)</f>
+        <v>Femi Ade</v>
+      </c>
+      <c r="B5" t="str">
+        <f>TRIM(Sheet1!B5)</f>
+        <v>femi_ade@company.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!A6)</f>
+        <v>Ada Lovelace</v>
+      </c>
+      <c r="B6" t="str">
+        <f>TRIM(Sheet1!B6)</f>
+        <v>ADA@company.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!A7)</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f>TRIM(Sheet1!B7)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03AA67-732D-41EF-8FEE-C610717C60D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B536647-6133-44B2-95B8-39B631596E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,6 +601,18 @@
         <f>TRIM(Sheet1!B2)</f>
         <v>ADA@company.COM</v>
       </c>
+      <c r="C2" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!C2)</f>
+        <v>lagos</v>
+      </c>
+      <c r="D2" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!D2)</f>
+        <v>Data Science</v>
+      </c>
+      <c r="E2" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!E2)</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
@@ -611,6 +623,18 @@
         <f>TRIM(Sheet1!B3)</f>
         <v>john_doe@company.com</v>
       </c>
+      <c r="C3" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!C3)</f>
+        <v>abuja</v>
+      </c>
+      <c r="D3" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!D3)</f>
+        <v>Marketing</v>
+      </c>
+      <c r="E3" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!E3)</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
@@ -621,6 +645,18 @@
         <f>TRIM(Sheet1!B4)</f>
         <v>MARYANN@company.COM</v>
       </c>
+      <c r="C4" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!C4)</f>
+        <v>port Harcourt</v>
+      </c>
+      <c r="D4" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!D4)</f>
+        <v>Human Resources</v>
+      </c>
+      <c r="E4" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!E4)</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
@@ -631,6 +667,18 @@
         <f>TRIM(Sheet1!B5)</f>
         <v>femi_ade@company.com</v>
       </c>
+      <c r="C5" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!C5)</f>
+        <v>lagos</v>
+      </c>
+      <c r="D5" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!D5)</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!E5)</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
@@ -641,6 +689,18 @@
         <f>TRIM(Sheet1!B6)</f>
         <v>ADA@company.com</v>
       </c>
+      <c r="C6" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!C6)</f>
+        <v>LAGOS</v>
+      </c>
+      <c r="D6" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!D6)</f>
+        <v>data science</v>
+      </c>
+      <c r="E6" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!E6)</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
@@ -651,6 +711,18 @@
         <f>TRIM(Sheet1!B7)</f>
         <v/>
       </c>
+      <c r="C7" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!C7)</f>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!D7)</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f xml:space="preserve"> TRIM(Sheet1!E7)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B536647-6133-44B2-95B8-39B631596E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E48C17-9304-4A1B-AFBB-85952AFDFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,8 +594,8 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!A2)</f>
-        <v>ada lovelace</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A2))</f>
+        <v>Ada Lovelace</v>
       </c>
       <c r="B2" t="str">
         <f>TRIM(Sheet1!B2)</f>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E48C17-9304-4A1B-AFBB-85952AFDFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60756354-A713-4906-99A1-2BD150EE4525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,7 +598,7 @@
         <v>Ada Lovelace</v>
       </c>
       <c r="B2" t="str">
-        <f>TRIM(Sheet1!B2)</f>
+        <f xml:space="preserve"> CLEAN(Sheet1!B2)</f>
         <v>ADA@company.COM</v>
       </c>
       <c r="C2" t="str">
@@ -616,11 +616,11 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!A3)</f>
-        <v>JOHN DOE</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A3))</f>
+        <v>John Doe</v>
       </c>
       <c r="B3" t="str">
-        <f>TRIM(Sheet1!B3)</f>
+        <f xml:space="preserve"> CLEAN(Sheet1!B3)</f>
         <v>john_doe@company.com</v>
       </c>
       <c r="C3" t="str">
@@ -638,11 +638,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!A4)</f>
-        <v>Mary ann</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A4))</f>
+        <v>Mary Ann</v>
       </c>
       <c r="B4" t="str">
-        <f>TRIM(Sheet1!B4)</f>
+        <f xml:space="preserve"> CLEAN(Sheet1!B4)</f>
         <v>MARYANN@company.COM</v>
       </c>
       <c r="C4" t="str">
@@ -660,11 +660,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!A5)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A5))</f>
         <v>Femi Ade</v>
       </c>
       <c r="B5" t="str">
-        <f>TRIM(Sheet1!B5)</f>
+        <f xml:space="preserve"> CLEAN(Sheet1!B5)</f>
         <v>femi_ade@company.com</v>
       </c>
       <c r="C5" t="str">
@@ -682,11 +682,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!A6)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A6))</f>
         <v>Ada Lovelace</v>
       </c>
       <c r="B6" t="str">
-        <f>TRIM(Sheet1!B6)</f>
+        <f xml:space="preserve"> CLEAN(Sheet1!B6)</f>
         <v>ADA@company.com</v>
       </c>
       <c r="C6" t="str">
@@ -704,11 +704,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!A7)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A7))</f>
         <v/>
       </c>
       <c r="B7" t="str">
-        <f>TRIM(Sheet1!B7)</f>
+        <f xml:space="preserve"> CLEAN(Sheet1!B7)</f>
         <v/>
       </c>
       <c r="C7" t="str">

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60756354-A713-4906-99A1-2BD150EE4525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296DF9F-700D-48B6-B9AD-617744C359CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,8 +598,8 @@
         <v>Ada Lovelace</v>
       </c>
       <c r="B2" t="str">
-        <f xml:space="preserve"> CLEAN(Sheet1!B2)</f>
-        <v>ADA@company.COM</v>
+        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B2))</f>
+        <v>ada@company.com</v>
       </c>
       <c r="C2" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!C2)</f>
@@ -620,7 +620,7 @@
         <v>John Doe</v>
       </c>
       <c r="B3" t="str">
-        <f xml:space="preserve"> CLEAN(Sheet1!B3)</f>
+        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B3))</f>
         <v>john_doe@company.com</v>
       </c>
       <c r="C3" t="str">
@@ -642,8 +642,8 @@
         <v>Mary Ann</v>
       </c>
       <c r="B4" t="str">
-        <f xml:space="preserve"> CLEAN(Sheet1!B4)</f>
-        <v>MARYANN@company.COM</v>
+        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B4))</f>
+        <v>maryann@company.com</v>
       </c>
       <c r="C4" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!C4)</f>
@@ -664,7 +664,7 @@
         <v>Femi Ade</v>
       </c>
       <c r="B5" t="str">
-        <f xml:space="preserve"> CLEAN(Sheet1!B5)</f>
+        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B5))</f>
         <v>femi_ade@company.com</v>
       </c>
       <c r="C5" t="str">
@@ -686,8 +686,8 @@
         <v>Ada Lovelace</v>
       </c>
       <c r="B6" t="str">
-        <f xml:space="preserve"> CLEAN(Sheet1!B6)</f>
-        <v>ADA@company.com</v>
+        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B6))</f>
+        <v>ada@company.com</v>
       </c>
       <c r="C6" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!C6)</f>
@@ -708,7 +708,7 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <f xml:space="preserve"> CLEAN(Sheet1!B7)</f>
+        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B7))</f>
         <v/>
       </c>
       <c r="C7" t="str">

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296DF9F-700D-48B6-B9AD-617744C359CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6BB652-DA98-4F79-889E-232946CE785B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,8 +602,8 @@
         <v>ada@company.com</v>
       </c>
       <c r="C2" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!C2)</f>
-        <v>lagos</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C2))</f>
+        <v>Lagos</v>
       </c>
       <c r="D2" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!D2)</f>
@@ -624,8 +624,8 @@
         <v>john_doe@company.com</v>
       </c>
       <c r="C3" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!C3)</f>
-        <v>abuja</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C3))</f>
+        <v>Abuja</v>
       </c>
       <c r="D3" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!D3)</f>
@@ -646,8 +646,8 @@
         <v>maryann@company.com</v>
       </c>
       <c r="C4" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!C4)</f>
-        <v>port Harcourt</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C4))</f>
+        <v>Port Harcourt</v>
       </c>
       <c r="D4" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!D4)</f>
@@ -668,8 +668,8 @@
         <v>femi_ade@company.com</v>
       </c>
       <c r="C5" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!C5)</f>
-        <v>lagos</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C5))</f>
+        <v>Lagos</v>
       </c>
       <c r="D5" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!D5)</f>
@@ -690,8 +690,8 @@
         <v>ada@company.com</v>
       </c>
       <c r="C6" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!C6)</f>
-        <v>LAGOS</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C6))</f>
+        <v>Lagos</v>
       </c>
       <c r="D6" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!D6)</f>
@@ -712,7 +712,7 @@
         <v/>
       </c>
       <c r="C7" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!C7)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C7))</f>
         <v/>
       </c>
       <c r="D7" t="str">

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6BB652-DA98-4F79-889E-232946CE785B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C6030-9828-4F36-BF56-61249EFA54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,7 +606,7 @@
         <v>Lagos</v>
       </c>
       <c r="D2" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!D2)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D2))</f>
         <v>Data Science</v>
       </c>
       <c r="E2" t="str">
@@ -628,7 +628,7 @@
         <v>Abuja</v>
       </c>
       <c r="D3" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!D3)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D3))</f>
         <v>Marketing</v>
       </c>
       <c r="E3" t="str">
@@ -650,7 +650,7 @@
         <v>Port Harcourt</v>
       </c>
       <c r="D4" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!D4)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D4))</f>
         <v>Human Resources</v>
       </c>
       <c r="E4" t="str">
@@ -672,7 +672,7 @@
         <v>Lagos</v>
       </c>
       <c r="D5" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!D5)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D5))</f>
         <v/>
       </c>
       <c r="E5" t="str">
@@ -694,8 +694,8 @@
         <v>Lagos</v>
       </c>
       <c r="D6" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!D6)</f>
-        <v>data science</v>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D6))</f>
+        <v>Data Science</v>
       </c>
       <c r="E6" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!E6)</f>
@@ -716,7 +716,7 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!D7)</f>
+        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D7))</f>
         <v/>
       </c>
       <c r="E7" t="str">

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C6030-9828-4F36-BF56-61249EFA54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365DC55-2D90-4328-8547-D126F78D9182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +571,7 @@
     <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,7 +606,7 @@
         <v>Lagos</v>
       </c>
       <c r="D2" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D2))</f>
+        <f xml:space="preserve"> IF(Sheet1!D2 = "", "Missing Department", PROPER(TRIM(Sheet1!D2)))</f>
         <v>Data Science</v>
       </c>
       <c r="E2" t="str">
@@ -628,7 +628,7 @@
         <v>Abuja</v>
       </c>
       <c r="D3" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D3))</f>
+        <f xml:space="preserve"> IF(Sheet1!D3 = "", "Missing Department", PROPER(TRIM(Sheet1!D3)))</f>
         <v>Marketing</v>
       </c>
       <c r="E3" t="str">
@@ -650,7 +650,7 @@
         <v>Port Harcourt</v>
       </c>
       <c r="D4" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D4))</f>
+        <f xml:space="preserve"> IF(Sheet1!D4 = "", "Missing Department", PROPER(TRIM(Sheet1!D4)))</f>
         <v>Human Resources</v>
       </c>
       <c r="E4" t="str">
@@ -672,8 +672,8 @@
         <v>Lagos</v>
       </c>
       <c r="D5" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D5))</f>
-        <v/>
+        <f xml:space="preserve"> IF(Sheet1!D5 = "", "Missing Department", PROPER(TRIM(Sheet1!D5)))</f>
+        <v>Missing Department</v>
       </c>
       <c r="E5" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!E5)</f>
@@ -694,7 +694,7 @@
         <v>Lagos</v>
       </c>
       <c r="D6" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D6))</f>
+        <f xml:space="preserve"> IF(Sheet1!D6 = "", "Missing Department", PROPER(TRIM(Sheet1!D6)))</f>
         <v>Data Science</v>
       </c>
       <c r="E6" t="str">
@@ -715,10 +715,6 @@
         <f xml:space="preserve"> PROPER(TRIM(Sheet1!C7))</f>
         <v/>
       </c>
-      <c r="D7" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!D7))</f>
-        <v/>
-      </c>
       <c r="E7" t="str">
         <f xml:space="preserve"> TRIM(Sheet1!E7)</f>
         <v/>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365DC55-2D90-4328-8547-D126F78D9182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863544F3-6389-47CB-832E-052BAE12971E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -610,7 +610,7 @@
         <v>Data Science</v>
       </c>
       <c r="E2" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!E2)</f>
+        <f xml:space="preserve"> IF(Sheet1!E2 = "", "Missing Remarks", TRIM(Sheet1!E2))</f>
         <v>Excellent</v>
       </c>
     </row>
@@ -632,7 +632,7 @@
         <v>Marketing</v>
       </c>
       <c r="E3" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!E3)</f>
+        <f xml:space="preserve"> IF(Sheet1!E3 = "", "Missing Remarks", TRIM(Sheet1!E3))</f>
         <v>Good</v>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>Human Resources</v>
       </c>
       <c r="E4" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!E4)</f>
+        <f xml:space="preserve"> IF(Sheet1!E4 = "", "Missing Remarks", TRIM(Sheet1!E4))</f>
         <v>Very Good</v>
       </c>
     </row>
@@ -676,8 +676,8 @@
         <v>Missing Department</v>
       </c>
       <c r="E5" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!E5)</f>
-        <v/>
+        <f xml:space="preserve"> IF(Sheet1!E5 = "", "Missing Remarks", TRIM(Sheet1!E5))</f>
+        <v>Missing Remarks</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -698,7 +698,7 @@
         <v>Data Science</v>
       </c>
       <c r="E6" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!E6)</f>
+        <f xml:space="preserve"> IF(Sheet1!E6 = "", "Missing Remarks", TRIM(Sheet1!E6))</f>
         <v>Excellent</v>
       </c>
     </row>
@@ -715,10 +715,6 @@
         <f xml:space="preserve"> PROPER(TRIM(Sheet1!C7))</f>
         <v/>
       </c>
-      <c r="E7" t="str">
-        <f xml:space="preserve"> TRIM(Sheet1!E7)</f>
-        <v/>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863544F3-6389-47CB-832E-052BAE12971E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FAA33-B1B2-4A06-A0FB-BE481E2BD517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,36 +682,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!A6))</f>
-        <v>Ada Lovelace</v>
-      </c>
-      <c r="B6" t="str">
-        <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B6))</f>
-        <v>ada@company.com</v>
-      </c>
-      <c r="C6" t="str">
-        <f xml:space="preserve"> PROPER(TRIM(Sheet1!C6))</f>
-        <v>Lagos</v>
-      </c>
-      <c r="D6" t="str">
-        <f xml:space="preserve"> IF(Sheet1!D6 = "", "Missing Department", PROPER(TRIM(Sheet1!D6)))</f>
-        <v>Data Science</v>
-      </c>
-      <c r="E6" t="str">
-        <f xml:space="preserve"> IF(Sheet1!E6 = "", "Missing Remarks", TRIM(Sheet1!E6))</f>
-        <v>Excellent</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
         <f xml:space="preserve"> PROPER(TRIM(Sheet1!A7))</f>
         <v/>
       </c>
-      <c r="B7" t="str">
+      <c r="B6" t="str">
         <f xml:space="preserve"> LOWER(CLEAN(Sheet1!B7))</f>
         <v/>
       </c>
-      <c r="C7" t="str">
+      <c r="C6" t="str">
         <f xml:space="preserve"> PROPER(TRIM(Sheet1!C7))</f>
         <v/>
       </c>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FAA33-B1B2-4A06-A0FB-BE481E2BD517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B276D9D-6B7B-45C9-882C-FA5869CD9D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Full Name</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>data science</t>
+  </si>
+  <si>
+    <t>Cleaned Records</t>
   </si>
 </sst>
 </file>
@@ -156,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,20 +460,20 @@
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -560,35 +564,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -694,6 +698,11 @@
         <v/>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B276D9D-6B7B-45C9-882C-FA5869CD9D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA645A8-4D5D-4B15-8CBD-8A5E0FAD2B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,6 +703,12 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f xml:space="preserve"> COUNTA(A2:E5)</f>
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA645A8-4D5D-4B15-8CBD-8A5E0FAD2B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19929B4B-660C-4B42-A6D5-44D07402214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cleaned data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Cleaned data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Full Name</t>
   </si>
@@ -116,6 +117,246 @@
   </si>
   <si>
     <t>Cleaned Records</t>
+  </si>
+  <si>
+    <t>Original_Customer_Name</t>
+  </si>
+  <si>
+    <t>Column D: Order_ID</t>
+  </si>
+  <si>
+    <t>Column E: Delivery_Address</t>
+  </si>
+  <si>
+    <t>john DOE</t>
+  </si>
+  <si>
+    <t>basic WIDGET X</t>
+  </si>
+  <si>
+    <t>PROD-001A-NEW</t>
+  </si>
+  <si>
+    <t>order_12345</t>
+  </si>
+  <si>
+    <t>123 Main St, Anytown</t>
+  </si>
+  <si>
+    <t>Jane SMITH</t>
+  </si>
+  <si>
+    <t>ADVANCED widget</t>
+  </si>
+  <si>
+    <t>PROD-002B-USED</t>
+  </si>
+  <si>
+    <t>order_54321</t>
+  </si>
+  <si>
+    <t>456 Oak Ave, somewhere city</t>
+  </si>
+  <si>
+    <t>alex ANDERSON</t>
+  </si>
+  <si>
+    <t>Premium Widget Z</t>
+  </si>
+  <si>
+    <t>PROD-003C-REFURB</t>
+  </si>
+  <si>
+    <t>order_67890</t>
+  </si>
+  <si>
+    <t>789 Pine Ln, Otherville</t>
+  </si>
+  <si>
+    <t>MARY JONES</t>
+  </si>
+  <si>
+    <t>standard widget</t>
+  </si>
+  <si>
+    <t>PROD-004D-NEW</t>
+  </si>
+  <si>
+    <t>order_11223</t>
+  </si>
+  <si>
+    <t>101 Elm Blvd, Anycity</t>
+  </si>
+  <si>
+    <t>peter parker</t>
+  </si>
+  <si>
+    <t>limited EDITION widget</t>
+  </si>
+  <si>
+    <t>PROD-005E-SAMPLE</t>
+  </si>
+  <si>
+    <t>order_99887</t>
+  </si>
+  <si>
+    <t>22 Jump St, Spidertown</t>
+  </si>
+  <si>
+    <t>bruce wayne</t>
+  </si>
+  <si>
+    <t>GOTHAM gadget</t>
+  </si>
+  <si>
+    <t>PROD-006F-TEST</t>
+  </si>
+  <si>
+    <t>order_00700</t>
+  </si>
+  <si>
+    <t>Wayne Manor, Gotham City</t>
+  </si>
+  <si>
+    <t>clark kent</t>
+  </si>
+  <si>
+    <t>DAILY planet paper</t>
+  </si>
+  <si>
+    <t>PROD-007G-NEW</t>
+  </si>
+  <si>
+    <t>order_00001</t>
+  </si>
+  <si>
+    <t>345 Metropolis St, Metropolis</t>
+  </si>
+  <si>
+    <t>Lois LANE</t>
+  </si>
+  <si>
+    <t>Interview Guide</t>
+  </si>
+  <si>
+    <t>PROD-008H-OLD</t>
+  </si>
+  <si>
+    <t>order_22334</t>
+  </si>
+  <si>
+    <t>123 Daily Bugle Rd, NYC</t>
+  </si>
+  <si>
+    <t>harley quinn</t>
+  </si>
+  <si>
+    <t>PUDDIN hammer</t>
+  </si>
+  <si>
+    <t>PROD-009I-CUSTOM</t>
+  </si>
+  <si>
+    <t>order_33445</t>
+  </si>
+  <si>
+    <t>Arkham Asylum, Gotham</t>
+  </si>
+  <si>
+    <t>tony stark</t>
+  </si>
+  <si>
+    <t>Iron Man MK V</t>
+  </si>
+  <si>
+    <t>PROD-010J-SPECIAL</t>
+  </si>
+  <si>
+    <t>order_44556</t>
+  </si>
+  <si>
+    <t>Stark Tower, NYC</t>
+  </si>
+  <si>
+    <t>Steve Rogers</t>
+  </si>
+  <si>
+    <t>CAPTAIN America shield</t>
+  </si>
+  <si>
+    <t>PROD-011K-VINTAGE</t>
+  </si>
+  <si>
+    <t>order_55667</t>
+  </si>
+  <si>
+    <t>Avengers Compound, Upstate NY</t>
+  </si>
+  <si>
+    <t>natasha Romanoff</t>
+  </si>
+  <si>
+    <t>BLACK Widow spy gear</t>
+  </si>
+  <si>
+    <t>PROD-012L-CLASSIFIED</t>
+  </si>
+  <si>
+    <t>order_66778</t>
+  </si>
+  <si>
+    <t>SHIELD HQ, Unknown</t>
+  </si>
+  <si>
+    <t>bruce banner</t>
+  </si>
+  <si>
+    <t>HULK Smash serum</t>
+  </si>
+  <si>
+    <t>PROD-013M-DANGEROUS</t>
+  </si>
+  <si>
+    <t>order_77889</t>
+  </si>
+  <si>
+    <t>Gamma Lab, Desert</t>
+  </si>
+  <si>
+    <t>thor odinson</t>
+  </si>
+  <si>
+    <t>Mjolnir replica</t>
+  </si>
+  <si>
+    <t>PROD-014N-ASGARDIAN</t>
+  </si>
+  <si>
+    <t>order_88990</t>
+  </si>
+  <si>
+    <t>Bifrost Bridge, Asgard</t>
+  </si>
+  <si>
+    <t>wonder woman</t>
+  </si>
+  <si>
+    <t>Lasso Of Truth</t>
+  </si>
+  <si>
+    <t>PROD-015O-AMAZONIAN</t>
+  </si>
+  <si>
+    <t>order_99001</t>
+  </si>
+  <si>
+    <t>Themyscira Palace, Paradise Island</t>
+  </si>
+  <si>
+    <t>Product_Code</t>
+  </si>
+  <si>
+    <t>Original_Product_Name</t>
   </si>
 </sst>
 </file>
@@ -563,10 +804,303 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153F928-C50A-4F6E-B50F-7319E215C30D}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19929B4B-660C-4B42-A6D5-44D07402214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3BEA6C-7E81-4B69-86D0-7621B4C512D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,12 +122,6 @@
     <t>Original_Customer_Name</t>
   </si>
   <si>
-    <t>Column D: Order_ID</t>
-  </si>
-  <si>
-    <t>Column E: Delivery_Address</t>
-  </si>
-  <si>
     <t>john DOE</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>Original_Product_Name</t>
+  </si>
+  <si>
+    <t>Order_ID</t>
+  </si>
+  <si>
+    <t>Delivery_Address</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,278 +816,280 @@
     <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>96</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
+++ b/stage_2/Data_Cleaning_Basics/Data_cleaning_basics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Data_Cleaning_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3BEA6C-7E81-4B69-86D0-7621B4C512D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9629E5-9246-4E1F-8705-C49370E02CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Cleaned data" sheetId="2" r:id="rId3"/>
+    <sheet name="Cleaned data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -804,301 +804,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153F928-C50A-4F6E-B50F-7319E215C30D}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565AC79-37B7-45CD-981E-7B446E326D9E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1248,4 +953,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153F928-C50A-4F6E-B50F-7319E215C30D}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> MID(C2, SEARCH("-",C2)+1, SEARCH("-",C2,SEARCH("-",C2)+1) - (SEARCH("-",C2)+1))</f>
+        <v>001A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G16" si="0" xml:space="preserve"> MID(C3, SEARCH("-",C3)+1, SEARCH("-",C3,SEARCH("-",C3)+1) - (SEARCH("-",C3)+1))</f>
+        <v>002B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>003C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>004D</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>005E</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>006F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>007G</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>008H</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>009I</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>010J</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>011K</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>012L</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>013M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>014N</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>015O</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>